--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -85,10 +85,10 @@
     <t>safe</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>positive</t>
   </si>
   <si>
     <t>well</t>
@@ -547,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -965,25 +965,25 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6566523605150214</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L15">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="N15">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O15">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -991,25 +991,25 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6491228070175439</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="N16">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1121,25 +1121,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.524390243902439</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="L21">
         <v>172</v>
       </c>
       <c r="M21">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="N21">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="10:17">
